--- a/config_12.29/rank_server.xlsx
+++ b/config_12.29/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="250">
   <si>
     <t>id|</t>
   </si>
@@ -1136,6 +1136,14 @@
   </si>
   <si>
     <t>圣诞收集榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>yd_jyb_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1200,7 +1208,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1255,6 +1263,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1284,7 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1423,6 +1437,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1701,16 +1733,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13.125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="14" customWidth="1"/>
     <col min="3" max="3" width="36" style="14" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="14" customWidth="1"/>
     <col min="5" max="5" width="22.75" style="14" customWidth="1"/>
@@ -1732,7 +1765,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1779,7 +1812,7 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="b">
@@ -1813,7 +1846,7 @@
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="b">
@@ -1853,7 +1886,7 @@
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="b">
@@ -1887,7 +1920,7 @@
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="b">
@@ -1924,7 +1957,7 @@
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="b">
@@ -1961,7 +1994,7 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="b">
@@ -1996,7 +2029,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="b">
@@ -2031,7 +2064,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="b">
@@ -2066,7 +2099,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="b">
@@ -2101,7 +2134,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="b">
@@ -2136,7 +2169,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="b">
@@ -2171,7 +2204,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="b">
@@ -2206,7 +2239,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="b">
@@ -2276,7 +2309,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
       <c r="B16" s="37" t="b">
@@ -2311,7 +2344,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
       <c r="B17" s="28" t="b">
@@ -2346,7 +2379,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
       <c r="B18" s="28" t="b">
@@ -2381,7 +2414,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
       <c r="B19" s="28" t="b">
@@ -2416,7 +2449,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
       <c r="B20" s="28" t="b">
@@ -2451,7 +2484,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41">
+      <c r="A21" s="27">
         <v>20</v>
       </c>
       <c r="B21" s="41" t="b">
@@ -2486,7 +2519,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
+      <c r="A22" s="27">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="b">
@@ -2518,11 +2551,11 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="46" t="b">
-        <v>1</v>
+      <c r="B23" s="41" t="b">
+        <v>0</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>228</v>
@@ -2554,7 +2587,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
+      <c r="A24" s="27">
         <v>23</v>
       </c>
       <c r="B24" s="47" t="b">
@@ -2587,6 +2620,41 @@
       </c>
       <c r="L24" s="47">
         <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
+        <v>24</v>
+      </c>
+      <c r="B25" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" s="54">
+        <v>1609200000</v>
+      </c>
+      <c r="F25" s="54">
+        <v>1609775999</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="53">
+        <v>24</v>
+      </c>
+      <c r="K25" s="53">
+        <v>24</v>
+      </c>
+      <c r="L25" s="53">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2598,11 +2666,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3195,6 +3263,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="55">
+        <v>43</v>
+      </c>
+      <c r="B44" s="55">
+        <v>24</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="55">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3204,10 +3286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D26"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3692,6 +3774,23 @@
         <v>9</v>
       </c>
       <c r="E28" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="55">
+        <v>28</v>
+      </c>
+      <c r="B29" s="55">
+        <v>25</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="55">
+        <v>9</v>
+      </c>
+      <c r="E29" s="55">
         <v>2</v>
       </c>
     </row>
@@ -3801,11 +3900,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4371,6 +4470,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="55">
+        <v>24</v>
+      </c>
+      <c r="B25" s="55">
+        <v>1</v>
+      </c>
+      <c r="C25" s="55">
+        <v>20</v>
+      </c>
+      <c r="D25" s="55">
+        <v>100</v>
+      </c>
+      <c r="E25" s="55">
+        <v>20</v>
+      </c>
+      <c r="F25" s="55">
+        <v>180</v>
+      </c>
+      <c r="G25" s="55">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4379,11 +4501,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4700,6 +4822,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="55">
+        <v>22</v>
+      </c>
+      <c r="B23" s="55">
+        <v>26</v>
+      </c>
+      <c r="C23" s="55">
+        <v>1</v>
+      </c>
+      <c r="D23" s="55">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4709,11 +4845,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5036,6 +5172,17 @@
         <v>1609171199</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="55">
+        <v>26</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="54">
+        <v>1609775999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5044,11 +5191,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8246,6 +8393,160 @@
         <v>122</v>
       </c>
     </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="55">
+        <v>143</v>
+      </c>
+      <c r="B144" s="55">
+        <v>22</v>
+      </c>
+      <c r="C144" s="55">
+        <v>1</v>
+      </c>
+      <c r="D144" s="55">
+        <v>1</v>
+      </c>
+      <c r="E144" s="55"/>
+      <c r="F144" s="55"/>
+      <c r="G144" s="55">
+        <v>128</v>
+      </c>
+      <c r="H144" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="55">
+        <v>144</v>
+      </c>
+      <c r="B145" s="55">
+        <v>22</v>
+      </c>
+      <c r="C145" s="55">
+        <v>2</v>
+      </c>
+      <c r="D145" s="55">
+        <v>2</v>
+      </c>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="55">
+        <v>129</v>
+      </c>
+      <c r="H145" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="55">
+        <v>145</v>
+      </c>
+      <c r="B146" s="55">
+        <v>22</v>
+      </c>
+      <c r="C146" s="55">
+        <v>3</v>
+      </c>
+      <c r="D146" s="55">
+        <v>3</v>
+      </c>
+      <c r="E146" s="55"/>
+      <c r="F146" s="55"/>
+      <c r="G146" s="55">
+        <v>130</v>
+      </c>
+      <c r="H146" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="55">
+        <v>146</v>
+      </c>
+      <c r="B147" s="55">
+        <v>22</v>
+      </c>
+      <c r="C147" s="55">
+        <v>4</v>
+      </c>
+      <c r="D147" s="55">
+        <v>6</v>
+      </c>
+      <c r="E147" s="55"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="55">
+        <v>131</v>
+      </c>
+      <c r="H147" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="55">
+        <v>147</v>
+      </c>
+      <c r="B148" s="55">
+        <v>22</v>
+      </c>
+      <c r="C148" s="55">
+        <v>7</v>
+      </c>
+      <c r="D148" s="55">
+        <v>10</v>
+      </c>
+      <c r="E148" s="55"/>
+      <c r="F148" s="55"/>
+      <c r="G148" s="55">
+        <v>132</v>
+      </c>
+      <c r="H148" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="55">
+        <v>148</v>
+      </c>
+      <c r="B149" s="55">
+        <v>22</v>
+      </c>
+      <c r="C149" s="55">
+        <v>11</v>
+      </c>
+      <c r="D149" s="55">
+        <v>15</v>
+      </c>
+      <c r="E149" s="55"/>
+      <c r="F149" s="55"/>
+      <c r="G149" s="55">
+        <v>133</v>
+      </c>
+      <c r="H149" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="55">
+        <v>149</v>
+      </c>
+      <c r="B150" s="55">
+        <v>22</v>
+      </c>
+      <c r="C150" s="55">
+        <v>16</v>
+      </c>
+      <c r="D150" s="55">
+        <v>20</v>
+      </c>
+      <c r="E150" s="55"/>
+      <c r="F150" s="55"/>
+      <c r="G150" s="55">
+        <v>134</v>
+      </c>
+      <c r="H150" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8255,11 +8556,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10897,6 +11198,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="55">
+        <v>132</v>
+      </c>
+      <c r="B133" s="55">
+        <v>128</v>
+      </c>
+      <c r="C133" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D133" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E133" s="55">
+        <v>100000</v>
+      </c>
+      <c r="F133" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="55">
+        <v>133</v>
+      </c>
+      <c r="B134" s="55">
+        <v>129</v>
+      </c>
+      <c r="C134" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D134" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" s="55">
+        <v>30000</v>
+      </c>
+      <c r="F134" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="55">
+        <v>134</v>
+      </c>
+      <c r="B135" s="55">
+        <v>130</v>
+      </c>
+      <c r="C135" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D135" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E135" s="55">
+        <v>10000</v>
+      </c>
+      <c r="F135" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="55">
+        <v>135</v>
+      </c>
+      <c r="B136" s="55">
+        <v>131</v>
+      </c>
+      <c r="C136" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="D136" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E136" s="55">
+        <v>3000</v>
+      </c>
+      <c r="F136" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="55">
+        <v>136</v>
+      </c>
+      <c r="B137" s="55">
+        <v>132</v>
+      </c>
+      <c r="C137" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D137" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E137" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F137" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="55">
+        <v>137</v>
+      </c>
+      <c r="B138" s="55">
+        <v>133</v>
+      </c>
+      <c r="C138" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D138" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E138" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F138" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="55">
+        <v>138</v>
+      </c>
+      <c r="B139" s="55">
+        <v>134</v>
+      </c>
+      <c r="C139" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D139" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E139" s="55">
+        <v>500</v>
+      </c>
+      <c r="F139" s="55">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_12.29/rank_server.xlsx
+++ b/config_12.29/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="258">
   <si>
     <t>id|</t>
   </si>
@@ -1144,6 +1144,38 @@
   </si>
   <si>
     <t>yd_jyb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_get_use_item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_get_use_item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_get_use_item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_yd_jyb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_sd_lh</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_dz_jz</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1208,7 +1240,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,6 +1301,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1298,7 +1336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1456,6 +1494,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1735,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
@@ -2666,11 +2719,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3223,57 +3276,115 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="58">
         <v>21</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D41" s="58">
         <v>22</v>
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="23">
+    <row r="42" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="58">
+        <v>21</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="58">
         <v>22</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="23">
+        <v>22</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D43" s="23">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="49">
-        <v>42</v>
-      </c>
-      <c r="B43" s="49">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="23">
+        <v>22</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="23">
         <v>23</v>
       </c>
-      <c r="C43" s="50" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="49">
+        <v>23</v>
+      </c>
+      <c r="C45" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D45" s="49">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="55">
-        <v>43</v>
-      </c>
-      <c r="B44" s="55">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="49">
+        <v>23</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="49">
         <v>24</v>
       </c>
-      <c r="C44" s="56" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="55">
+        <v>24</v>
+      </c>
+      <c r="C47" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="55">
+      <c r="D47" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="55">
+        <v>25</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="55">
         <v>25</v>
       </c>
     </row>
@@ -3286,10 +3397,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3727,7 +3838,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="42">
@@ -3744,7 +3855,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="23">
@@ -3761,36 +3872,87 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="49">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="23">
+        <v>23</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="49">
         <v>24</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C29" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D29" s="49">
         <v>9</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E29" s="49">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="55">
-        <v>28</v>
-      </c>
-      <c r="B29" s="55">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="49">
+        <v>24</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="E30" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="55">
         <v>25</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C31" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D31" s="55">
         <v>9</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E31" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="55">
+        <v>25</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="55">
         <v>2</v>
       </c>
     </row>

--- a/config_12.29/rank_server.xlsx
+++ b/config_12.29/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1790,7 +1790,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2721,9 +2721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:A48"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3379,7 +3379,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="55" t="s">
         <v>252</v>
@@ -3399,7 +3399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
